--- a/Excel/DAY_3.xlsx
+++ b/Excel/DAY_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH_3\Numerik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH_3\Numerik\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C3ED4C-8294-4B30-A996-5F4A9E0AEA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EA428C-397A-4F8D-AA14-E6070D7D5908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6A1AEE6-1AF9-4C0F-97AA-8B89E651BB4E}"/>
   </bookViews>
@@ -85,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,11 +93,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -108,17 +123,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,19 +476,21 @@
   <dimension ref="C4:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="19" max="19" width="12.21875" customWidth="1"/>
+    <col min="20" max="20" width="7" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -505,75 +525,75 @@
       </c>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>-3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="8">
         <f>2*C5^2+3*C5-4</f>
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>-3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="1">
         <f>2*H5^2+3*H5-4</f>
         <v>5</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <v>-2.4</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="1">
         <f t="shared" ref="M5:M15" si="0">2*L5^2+3*L5-4</f>
         <v>0.32000000000000028</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>-2.36</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <f t="shared" ref="P5:P16" si="1">2*O5^2+3*O5-4</f>
         <v>5.9199999999998809E-2</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <v>-2.351</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <f t="shared" ref="S5:S16" si="2">2*R5^2+3*R5-4</f>
         <v>1.4019999999996813E-3</v>
       </c>
       <c r="U5">
         <v>-2.3508</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="5">
         <f>2*U5^2+3*U5-4</f>
         <v>1.2128000000011241E-4</v>
       </c>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="8">
         <f t="shared" ref="D6:D11" si="3">2*C6^2+3*C6-4</f>
         <v>-2</v>
       </c>
       <c r="H6" s="1">
         <v>-2.9</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <f t="shared" ref="I6:I15" si="4">2*H6^2+3*H6-4</f>
         <v>4.120000000000001</v>
       </c>
       <c r="L6" s="1">
         <v>-2.39</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="1">
         <f t="shared" si="0"/>
         <v>0.25420000000000087</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="5">
         <v>-2.359</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <f t="shared" si="1"/>
         <v>5.2761999999999531E-2</v>
       </c>
@@ -581,45 +601,45 @@
         <f>R5+0.0001</f>
         <v>-2.3508999999999998</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <f t="shared" si="2"/>
         <v>7.6161999999868613E-4</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="4">
         <f>U5+0.00001</f>
         <v>-2.3507899999999999</v>
       </c>
-      <c r="V6" s="8">
-        <f t="shared" ref="V5:V16" si="5">2*U6^2+3*U6-4</f>
+      <c r="V6" s="6">
+        <f t="shared" ref="V6:V16" si="5">2*U6^2+3*U6-4</f>
         <v>5.7248199999193616E-5</v>
       </c>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>-1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <f t="shared" si="3"/>
         <v>-5</v>
       </c>
       <c r="H7" s="1">
         <v>-2.8</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>3.2799999999999994</v>
       </c>
       <c r="L7" s="1">
         <v>-2.38</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="1">
         <f t="shared" si="0"/>
         <v>0.18879999999999963</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="5">
         <v>-2.3580000000000001</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <f t="shared" si="1"/>
         <v>4.6328000000000813E-2</v>
       </c>
@@ -627,53 +647,53 @@
         <f>R6+0.0001</f>
         <v>-2.3507999999999996</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="6">
         <f t="shared" si="2"/>
         <v>1.212799999965597E-4</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4">
         <f t="shared" ref="U7:U16" si="6">U6+0.00001</f>
         <v>-2.3507799999999999</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="6">
         <f t="shared" si="5"/>
         <v>-6.7831999999157233E-6</v>
       </c>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="8">
         <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="H8" s="1">
         <v>-2.7</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>2.4800000000000004</v>
       </c>
       <c r="L8" s="1">
         <v>-2.37</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>0.12380000000000013</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="5">
         <v>-2.3570000000000002</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <f t="shared" si="1"/>
         <v>3.9898000000001765E-2</v>
       </c>
       <c r="R8" s="3">
-        <f t="shared" ref="R7:R16" si="7">R7+0.0001</f>
+        <f t="shared" ref="R8:R16" si="7">R7+0.0001</f>
         <v>-2.3506999999999993</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="6">
         <f t="shared" si="2"/>
         <v>-5.1902000000403348E-4</v>
       </c>
@@ -681,23 +701,23 @@
         <f t="shared" si="6"/>
         <v>-2.3507699999999998</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <f t="shared" si="5"/>
         <v>-7.0814200001656502E-5</v>
       </c>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>-2.6</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>1.7200000000000006</v>
       </c>
@@ -708,10 +728,10 @@
         <f t="shared" si="0"/>
         <v>5.9199999999998809E-2</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="5">
         <v>-2.3559999999999999</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <f t="shared" si="1"/>
         <v>3.3471999999999724E-2</v>
       </c>
@@ -719,7 +739,7 @@
         <f t="shared" si="7"/>
         <v>-2.3505999999999991</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <f t="shared" si="2"/>
         <v>-1.1592800000057579E-3</v>
       </c>
@@ -727,23 +747,23 @@
         <f t="shared" si="6"/>
         <v>-2.3507599999999997</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <f t="shared" si="5"/>
         <v>-1.3484480000158783E-4</v>
       </c>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="9">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="H10" s="1">
         <v>-2.5</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -754,10 +774,10 @@
         <f t="shared" si="0"/>
         <v>-4.9999999999990052E-3</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="5">
         <v>-2.355</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <f t="shared" si="1"/>
         <v>2.7050000000000907E-2</v>
       </c>
@@ -765,7 +785,7 @@
         <f t="shared" si="7"/>
         <v>-2.3504999999999989</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <f t="shared" si="2"/>
         <v>-1.7995000000077255E-3</v>
       </c>
@@ -773,16 +793,16 @@
         <f t="shared" si="6"/>
         <v>-2.3507499999999997</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <f t="shared" si="5"/>
         <v>-1.9887500000237424E-4</v>
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C11" s="1">
+      <c r="C11" s="9">
         <v>3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="9">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -796,14 +816,14 @@
       <c r="L11" s="1">
         <v>-2.34</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="1">
         <f t="shared" si="0"/>
         <v>-6.8800000000001305E-2</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="5">
         <v>-2.3540000000000001</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <f t="shared" si="1"/>
         <v>2.0631999999999984E-2</v>
       </c>
@@ -811,7 +831,7 @@
         <f t="shared" si="7"/>
         <v>-2.3503999999999987</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <f t="shared" si="2"/>
         <v>-2.4396800000090479E-3</v>
       </c>
@@ -819,7 +839,7 @@
         <f t="shared" si="6"/>
         <v>-2.3507399999999996</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="5">
         <f t="shared" si="5"/>
         <v>-2.6290480000135119E-4</v>
       </c>
@@ -835,14 +855,14 @@
       <c r="L12" s="1">
         <v>-2.33</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="1">
         <f t="shared" si="0"/>
         <v>-0.13219999999999921</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="5">
         <v>-2.3530000000000002</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <f t="shared" si="1"/>
         <v>1.4218000000001396E-2</v>
       </c>
@@ -850,7 +870,7 @@
         <f t="shared" si="7"/>
         <v>-2.3502999999999985</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <f t="shared" si="2"/>
         <v>-3.0798200000088372E-3</v>
       </c>
@@ -858,7 +878,7 @@
         <f t="shared" si="6"/>
         <v>-2.3507299999999995</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="5">
         <f t="shared" si="5"/>
         <v>-3.2693420000295959E-4</v>
       </c>
@@ -867,21 +887,21 @@
       <c r="H13" s="1">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="1">
         <f t="shared" si="4"/>
         <v>-0.91999999999999904</v>
       </c>
       <c r="L13" s="1">
         <v>-2.3199999999999998</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="1">
         <f t="shared" si="0"/>
         <v>-0.19519999999999982</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="5">
         <v>-2.3519999999999999</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <f t="shared" si="1"/>
         <v>7.8079999999989269E-3</v>
       </c>
@@ -889,7 +909,7 @@
         <f t="shared" si="7"/>
         <v>-2.3501999999999983</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <f t="shared" si="2"/>
         <v>-3.719920000011534E-3</v>
       </c>
@@ -897,7 +917,7 @@
         <f t="shared" si="6"/>
         <v>-2.3507199999999995</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="5">
         <f t="shared" si="5"/>
         <v>-3.9096320000453488E-4</v>
       </c>
@@ -906,21 +926,21 @@
       <c r="H14" s="1">
         <v>-2.1</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="1">
         <f t="shared" si="4"/>
         <v>-1.4800000000000004</v>
       </c>
       <c r="L14" s="1">
         <v>-2.31</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="1">
         <f t="shared" si="0"/>
         <v>-0.25779999999999959</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="6">
         <v>-2.351</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="6">
         <f t="shared" si="1"/>
         <v>1.4019999999996813E-3</v>
       </c>
@@ -928,7 +948,7 @@
         <f t="shared" si="7"/>
         <v>-2.3500999999999981</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <f t="shared" si="2"/>
         <v>-4.3599800000126976E-3</v>
       </c>
@@ -936,7 +956,7 @@
         <f t="shared" si="6"/>
         <v>-2.3507099999999994</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <f t="shared" si="5"/>
         <v>-4.5499180000341255E-4</v>
       </c>
@@ -945,21 +965,21 @@
       <c r="H15" s="1">
         <v>-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="1">
         <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="L15" s="1">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="1">
         <f t="shared" si="0"/>
         <v>-0.32000000000000117</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="6">
         <v>-2.35</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="6">
         <f t="shared" si="1"/>
         <v>-4.9999999999990052E-3</v>
       </c>
@@ -967,7 +987,7 @@
         <f t="shared" si="7"/>
         <v>-2.3499999999999979</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <f t="shared" si="2"/>
         <v>-5.0000000000132161E-3</v>
       </c>
@@ -975,16 +995,16 @@
         <f t="shared" si="6"/>
         <v>-2.3506999999999993</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <f t="shared" si="5"/>
         <v>-5.1902000000403348E-4</v>
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="O16" s="7">
+      <c r="O16" s="5">
         <v>-2.3490000000000002</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <f t="shared" si="1"/>
         <v>-1.1397999999998021E-2</v>
       </c>
@@ -992,7 +1012,7 @@
         <f t="shared" si="7"/>
         <v>-2.3498999999999977</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <f t="shared" si="2"/>
         <v>-5.6399800000139777E-3</v>
       </c>
@@ -1000,7 +1020,7 @@
         <f t="shared" si="6"/>
         <v>-2.3506899999999993</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="5">
         <f t="shared" si="5"/>
         <v>-5.8304780000373313E-4</v>
       </c>
